--- a/PartitiFinito.xlsx
+++ b/PartitiFinito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{8B0BC6E0-EBF2-4E42-B1EB-B3D655B2823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D1C0C9-15B8-4D34-BB8C-5EB5D51D0B3A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{8B0BC6E0-EBF2-4E42-B1EB-B3D655B2823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF910906-6918-4D89-80F7-CDAE082B1845}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="588" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="276" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="224">
   <si>
     <t>LeU</t>
   </si>
@@ -685,6 +685,18 @@
   </si>
   <si>
     <t>Articolo Uno</t>
+  </si>
+  <si>
+    <t>Sicilia Futura</t>
+  </si>
+  <si>
+    <t>Il Popolo della Libertà</t>
+  </si>
+  <si>
+    <t>Popolo e Territorio</t>
+  </si>
+  <si>
+    <t>Stella Alpina</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1055,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,6 +1228,12 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1375,6 +1393,12 @@
       <c r="A31" t="s">
         <v>55</v>
       </c>
+      <c r="B31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1613,6 +1637,12 @@
       <c r="A54" t="s">
         <v>97</v>
       </c>
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -1978,6 +2008,12 @@
       <c r="A88" t="s">
         <v>159</v>
       </c>
+      <c r="B88" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -2059,6 +2095,12 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>174</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">

--- a/PartitiFinito.xlsx
+++ b/PartitiFinito.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8B0BC6E0-EBF2-4E42-B1EB-B3D655B2823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF910906-6918-4D89-80F7-CDAE082B1845}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F36F37-4A1F-41A6-9DC1-2D9C602D228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="276" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="1272" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
   <si>
     <t>LeU</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Più Europa</t>
   </si>
   <si>
-    <t>MAIE</t>
-  </si>
-  <si>
-    <t>Il Movimento Associativo Italiani all'Estero</t>
-  </si>
-  <si>
     <t>PRI</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Union Valdôtaine</t>
   </si>
   <si>
-    <t>Indipendenti</t>
-  </si>
-  <si>
     <t>RD</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Partito Socialista Rivoluzionario</t>
   </si>
   <si>
-    <t>DemoS</t>
-  </si>
-  <si>
     <t>Democrazia Solidale</t>
   </si>
   <si>
@@ -297,24 +285,12 @@
     <t>Liberal Democratici</t>
   </si>
   <si>
-    <t>AISA</t>
-  </si>
-  <si>
-    <t>Associazioni Italiane in Sud America</t>
-  </si>
-  <si>
-    <t>PeC</t>
-  </si>
-  <si>
     <t>PDIUM</t>
   </si>
   <si>
     <t>Partito Democratico Italiano di Unità Monarchica</t>
   </si>
   <si>
-    <t>Ind. PdL</t>
-  </si>
-  <si>
     <t>Partito Democratico del Lavoro</t>
   </si>
   <si>
@@ -375,15 +351,6 @@
     <t>Alleanza Nazionale</t>
   </si>
   <si>
-    <t>Rivoluzione Democratica(?)</t>
-  </si>
-  <si>
-    <t>USEI</t>
-  </si>
-  <si>
-    <t>Unione Sudamericana Emigrati Italiani</t>
-  </si>
-  <si>
     <t>FLI</t>
   </si>
   <si>
@@ -612,21 +579,12 @@
     <t>Unione Cristiana</t>
   </si>
   <si>
-    <t>Fareitalia</t>
-  </si>
-  <si>
-    <t>Èv</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
     <t xml:space="preserve">Rinnovamento Italiano </t>
   </si>
   <si>
-    <t>Eu</t>
-  </si>
-  <si>
     <t>sinistra</t>
   </si>
   <si>
@@ -663,18 +621,9 @@
     <t>C</t>
   </si>
   <si>
-    <t>[questo non so cosa sia]</t>
-  </si>
-  <si>
     <t>centro-destra [ma è un gruppo parlamentare, non un partito]</t>
   </si>
   <si>
-    <t>centro/centro-sinistra (?)</t>
-  </si>
-  <si>
-    <t>[questa è un'associazione di centro-destra, non un partito]</t>
-  </si>
-  <si>
     <t>Cristiani Democratici Uniti</t>
   </si>
   <si>
@@ -697,6 +646,48 @@
   </si>
   <si>
     <t>Stella Alpina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centro-sinistra </t>
+  </si>
+  <si>
+    <t>Demo.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +Eu</t>
+  </si>
+  <si>
+    <t>FdI</t>
+  </si>
+  <si>
+    <t>Fratelli d'Italia</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Noi Moderati</t>
+  </si>
+  <si>
+    <t>Az</t>
+  </si>
+  <si>
+    <t>Azione</t>
+  </si>
+  <si>
+    <t>PNM-MSI</t>
+  </si>
+  <si>
+    <t>Partito Nazionale Monarchico/Movimento Sociale Italiano</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>Alleanza Liberalpopolare</t>
   </si>
 </sst>
 </file>
@@ -749,10 +740,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,13 +1054,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,18 +1071,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,6 +1092,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1114,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,62 +1123,65 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1196,10 +1189,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1207,10 +1200,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1229,76 +1222,76 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,76 +1299,76 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1379,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,21 +1387,21 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,7 +1412,7 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,32 +1420,32 @@
         <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,7 +1456,7 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,7 +1467,7 @@
         <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1482,32 +1475,32 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,7 +1511,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,7 +1522,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,7 +1533,7 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,7 +1544,7 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1555,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1566,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,18 +1577,18 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1605,337 +1598,349 @@
       <c r="B50" t="s">
         <v>91</v>
       </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>201</v>
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" t="s">
-        <v>205</v>
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1946,7 +1951,7 @@
         <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1957,7 +1962,7 @@
         <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1965,298 +1970,274 @@
         <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>197</v>
-      </c>
-      <c r="B110" t="s">
-        <v>198</v>
-      </c>
-      <c r="C110" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/PartitiFinito.xlsx
+++ b/PartitiFinito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F36F37-4A1F-41A6-9DC1-2D9C602D228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{30E7AF1C-3F35-4C3C-BE0C-A5BD47B52D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A64C8A8F-6923-4E8E-A2AE-B317645E4E0E}"/>
   <bookViews>
     <workbookView xWindow="672" yWindow="1272" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="220">
   <si>
     <t>LeU</t>
   </si>
@@ -441,12 +441,6 @@
     <t>Partito Comunista Italiano</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Coesione Nazionale</t>
-  </si>
-  <si>
     <t>PdL/FI</t>
   </si>
   <si>
@@ -621,9 +615,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>centro-destra [ma è un gruppo parlamentare, non un partito]</t>
-  </si>
-  <si>
     <t>Cristiani Democratici Uniti</t>
   </si>
   <si>
@@ -688,6 +679,12 @@
   </si>
   <si>
     <t>Alleanza Liberalpopolare</t>
+  </si>
+  <si>
+    <t>PDM</t>
+  </si>
+  <si>
+    <t>Partito Democratico Meridionale</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>195</v>
-      </c>
-      <c r="B1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1071,18 +1068,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1093,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1104,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1115,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1126,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1137,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1148,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1170,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1181,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1192,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,10 +1197,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1214,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1225,7 +1222,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1236,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1247,7 +1244,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1258,7 +1255,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1269,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1280,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1291,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1302,7 +1299,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1313,7 +1310,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1324,7 +1321,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1335,7 +1332,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1346,7 +1343,7 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1357,7 +1354,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1365,10 +1362,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,7 +1376,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1390,18 +1387,18 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1412,7 +1409,7 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1420,10 +1417,10 @@
         <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1434,7 +1431,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1445,7 +1442,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1456,7 +1453,7 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1467,7 +1464,7 @@
         <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1478,7 +1475,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1489,7 +1486,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1500,7 +1497,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1511,7 +1508,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1522,7 +1519,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1533,7 +1530,7 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,7 +1541,7 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1555,7 +1552,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,7 +1563,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1577,21 +1574,21 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -1599,10 +1596,10 @@
         <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -1610,10 +1607,10 @@
         <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -1621,21 +1618,21 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>97</v>
       </c>
-      <c r="E53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -1643,10 +1640,10 @@
         <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -1654,10 +1651,10 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -1665,10 +1662,10 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -1676,10 +1673,10 @@
         <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -1687,10 +1684,10 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -1698,10 +1695,10 @@
         <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -1709,10 +1706,10 @@
         <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -1720,10 +1717,10 @@
         <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -1731,10 +1728,10 @@
         <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -1742,10 +1739,10 @@
         <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -1753,7 +1750,7 @@
         <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1764,7 +1761,7 @@
         <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1775,7 +1772,7 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1786,7 +1783,7 @@
         <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1797,7 +1794,7 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1808,7 +1805,7 @@
         <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1819,7 +1816,7 @@
         <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1830,7 +1827,7 @@
         <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1841,7 +1838,7 @@
         <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1852,7 +1849,7 @@
         <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1863,7 +1860,7 @@
         <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1874,7 +1871,7 @@
         <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1882,21 +1879,21 @@
         <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
         <v>142</v>
       </c>
-      <c r="B77" t="s">
-        <v>162</v>
-      </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1907,7 +1904,7 @@
         <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1915,32 +1912,32 @@
         <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
         <v>148</v>
       </c>
-      <c r="B81" t="s">
-        <v>203</v>
-      </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1951,7 +1948,7 @@
         <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1962,7 +1959,7 @@
         <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1973,7 +1970,7 @@
         <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1984,7 +1981,7 @@
         <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1992,29 +1989,29 @@
         <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
         <v>159</v>
       </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>186</v>
@@ -2022,10 +2019,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
         <v>163</v>
-      </c>
-      <c r="B89" t="s">
-        <v>77</v>
       </c>
       <c r="C89" t="s">
         <v>188</v>
@@ -2039,7 +2036,7 @@
         <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2047,21 +2044,21 @@
         <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
         <v>168</v>
       </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2072,7 +2069,7 @@
         <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2083,7 +2080,7 @@
         <v>172</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2094,7 +2091,7 @@
         <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2105,7 +2102,7 @@
         <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2113,21 +2110,21 @@
         <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" t="s">
         <v>179</v>
       </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2149,95 +2146,95 @@
         <v>183</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
         <v>185</v>
-      </c>
-      <c r="C101" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" t="s">
         <v>210</v>
       </c>
-      <c r="B103" t="s">
-        <v>211</v>
-      </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
         <v>212</v>
       </c>
-      <c r="B104" t="s">
-        <v>213</v>
-      </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
         <v>214</v>
       </c>
-      <c r="B105" t="s">
-        <v>215</v>
-      </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
         <v>219</v>
       </c>
-      <c r="B108" t="s">
-        <v>220</v>
-      </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/PartitiFinito.xlsx
+++ b/PartitiFinito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{30E7AF1C-3F35-4C3C-BE0C-A5BD47B52D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A64C8A8F-6923-4E8E-A2AE-B317645E4E0E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{30E7AF1C-3F35-4C3C-BE0C-A5BD47B52D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E831CC-E46F-47BA-AE8B-9A3C6EA5C4F7}"/>
   <bookViews>
     <workbookView xWindow="672" yWindow="1272" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
   <si>
     <t>LeU</t>
   </si>
@@ -69,9 +69,6 @@
     <t>PP-AP</t>
   </si>
   <si>
-    <t>Alternativa Popolare(?)</t>
-  </si>
-  <si>
     <t>Cambiamo!</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>centro-destra</t>
   </si>
   <si>
-    <t>centro/centro-destra</t>
-  </si>
-  <si>
     <t>estrema sinistra</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
     <t>Cristiani Democratici Uniti</t>
   </si>
   <si>
-    <t xml:space="preserve">centro </t>
-  </si>
-  <si>
     <t>Art.1</t>
   </si>
   <si>
@@ -637,9 +628,6 @@
   </si>
   <si>
     <t>Stella Alpina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centro-sinistra </t>
   </si>
   <si>
     <t>Demo.S</t>
@@ -737,6 +725,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -1051,13 +1043,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
         <v>193</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1068,18 +1060,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1101,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1112,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1123,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1134,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,1099 +1134,1099 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
-        <v>91</v>
-      </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
         <v>92</v>
       </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
         <v>94</v>
       </c>
-      <c r="B52" t="s">
-        <v>95</v>
-      </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-      <c r="B53" t="s">
-        <v>97</v>
-      </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
         <v>98</v>
       </c>
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
         <v>100</v>
       </c>
-      <c r="B55" t="s">
-        <v>101</v>
-      </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
         <v>102</v>
       </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
         <v>106</v>
       </c>
-      <c r="B58" t="s">
-        <v>107</v>
-      </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
         <v>110</v>
       </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-      <c r="B61" t="s">
-        <v>113</v>
-      </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
         <v>114</v>
       </c>
-      <c r="B62" t="s">
-        <v>115</v>
-      </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" t="s">
-        <v>117</v>
-      </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
         <v>118</v>
       </c>
-      <c r="B64" t="s">
-        <v>119</v>
-      </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="B67" t="s">
-        <v>124</v>
-      </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
         <v>125</v>
       </c>
-      <c r="B68" t="s">
-        <v>126</v>
-      </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
         <v>127</v>
       </c>
-      <c r="B69" t="s">
-        <v>128</v>
-      </c>
       <c r="C69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
         <v>130</v>
       </c>
-      <c r="B71" t="s">
-        <v>131</v>
-      </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
         <v>132</v>
       </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
-        <v>135</v>
-      </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" t="s">
         <v>136</v>
       </c>
-      <c r="B74" t="s">
-        <v>137</v>
-      </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
         <v>141</v>
       </c>
-      <c r="B77" t="s">
-        <v>142</v>
-      </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
         <v>143</v>
       </c>
-      <c r="B78" t="s">
-        <v>144</v>
-      </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
         <v>147</v>
       </c>
-      <c r="B81" t="s">
-        <v>148</v>
-      </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
         <v>149</v>
       </c>
-      <c r="B82" t="s">
-        <v>150</v>
-      </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
         <v>151</v>
       </c>
-      <c r="B83" t="s">
-        <v>152</v>
-      </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s">
-        <v>154</v>
-      </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="B85" t="s">
-        <v>156</v>
-      </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
         <v>158</v>
       </c>
-      <c r="B87" t="s">
-        <v>159</v>
-      </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
         <v>162</v>
       </c>
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
         <v>164</v>
       </c>
-      <c r="B90" t="s">
-        <v>165</v>
-      </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" t="s">
         <v>167</v>
       </c>
-      <c r="B92" t="s">
-        <v>168</v>
-      </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
         <v>169</v>
       </c>
-      <c r="B93" t="s">
-        <v>170</v>
-      </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
         <v>171</v>
       </c>
-      <c r="B94" t="s">
-        <v>172</v>
-      </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
         <v>173</v>
       </c>
-      <c r="B95" t="s">
-        <v>174</v>
-      </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" t="s">
         <v>175</v>
       </c>
-      <c r="B96" t="s">
-        <v>176</v>
-      </c>
       <c r="C96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" t="s">
         <v>178</v>
       </c>
-      <c r="B98" t="s">
-        <v>179</v>
-      </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
         <v>180</v>
       </c>
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
         <v>182</v>
       </c>
-      <c r="B100" t="s">
-        <v>183</v>
-      </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
